--- a/Game Design/SkillAges.xlsx
+++ b/Game Design/SkillAges.xlsx
@@ -152,9 +152,6 @@
     <t>holy statues (venuses)</t>
   </si>
   <si>
-    <t>carved tip spear, wooden parts of other tools, clubs</t>
-  </si>
-  <si>
     <t>animism</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>temple worship</t>
   </si>
   <si>
-    <t>cultivate wheat,millet, spelt, barley, rye, peas</t>
-  </si>
-  <si>
     <t>almond, pistachios</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>mound tombs, stone rings, stone temples</t>
   </si>
   <si>
-    <t>fur clothing, bone tools such as sewing bone,</t>
-  </si>
-  <si>
     <t>deer antler plough, wool clothing</t>
   </si>
   <si>
@@ -186,6 +177,15 @@
   </si>
   <si>
     <t>plaster coated houses, circular ditches, timber longhouses</t>
+  </si>
+  <si>
+    <t>fur clothing, bone tools such as sewing bone, antler knapper</t>
+  </si>
+  <si>
+    <t>carved tip spear, wooden parts of other tools, clubs, wooden knapper</t>
+  </si>
+  <si>
+    <t>wheat,millet, spelt, barley, rye, peas</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -713,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>40</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>39</v>
@@ -900,10 +900,10 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">

--- a/Game Design/SkillAges.xlsx
+++ b/Game Design/SkillAges.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\GitHub\BeforeLegends\Game Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill tree tribe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>Plant</t>
   </si>
@@ -186,13 +182,127 @@
   </si>
   <si>
     <t>wheat,millet, spelt, barley, rye, peas</t>
+  </si>
+  <si>
+    <t>Levels Required</t>
+  </si>
+  <si>
+    <t>Default Perks</t>
+  </si>
+  <si>
+    <t>Custom Perks</t>
+  </si>
+  <si>
+    <t>Gather</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>food (+2)</t>
+  </si>
+  <si>
+    <t>*Gather, Hunt have  (+/-) 50% Variation</t>
+  </si>
+  <si>
+    <t>food (+2), wood (+1), stone (+1)</t>
+  </si>
+  <si>
+    <t>Reveals</t>
+  </si>
+  <si>
+    <t>wood, stone</t>
+  </si>
+  <si>
+    <t>food (+3), fur (+1), bone (+1)</t>
+  </si>
+  <si>
+    <t>food (+2), wood (+2), stone (+1), herbs (+1)</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Wood, Stone, bone</t>
+  </si>
+  <si>
+    <t>adv. stone, adv. bone, adv. wood</t>
+  </si>
+  <si>
+    <t>adv. Gatherer</t>
+  </si>
+  <si>
+    <t>(+ 50%) output</t>
+  </si>
+  <si>
+    <t>adv. Hunters</t>
+  </si>
+  <si>
+    <t>adv. Wood work</t>
+  </si>
+  <si>
+    <t>adv. Stone work</t>
+  </si>
+  <si>
+    <t>(+1) D for wood weapons</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>Camp, Hand slide</t>
+  </si>
+  <si>
+    <t>adv. Slide</t>
+  </si>
+  <si>
+    <t>(+5) Slide Inventory</t>
+  </si>
+  <si>
+    <t>grain, herbs, obsidian</t>
+  </si>
+  <si>
+    <t>exp. Gatherer</t>
+  </si>
+  <si>
+    <t>exp. Hunters</t>
+  </si>
+  <si>
+    <t>(+100%) output</t>
+  </si>
+  <si>
+    <t>(+1) D for stone weapons</t>
+  </si>
+  <si>
+    <t>Fighter Instinkt</t>
+  </si>
+  <si>
+    <t>(+2 AS) all units</t>
+  </si>
+  <si>
+    <t>Defence Instinkt</t>
+  </si>
+  <si>
+    <t>(+2 DS) all units</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>plant grain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +346,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +387,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -308,6 +432,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -317,13 +669,78 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Berechnung" xfId="5" builtinId="22"/>
@@ -389,7 +806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +841,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,21 +1018,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -625,7 +1042,7 @@
     <col min="6" max="6" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -645,7 +1062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -665,7 +1082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,7 +1099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,7 +1116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -716,7 +1133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -736,7 +1153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -747,7 +1164,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -758,7 +1175,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -775,7 +1192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -788,7 +1205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -803,7 +1220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -820,7 +1237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -837,7 +1254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -848,7 +1265,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -859,7 +1276,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -876,7 +1293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -891,7 +1308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -906,7 +1323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -923,7 +1340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -940,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -951,7 +1368,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -962,7 +1379,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -973,7 +1390,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
@@ -984,7 +1401,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -995,7 +1412,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1425,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1436,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1447,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1458,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1469,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1480,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
@@ -1074,7 +1491,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1502,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1513,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>17</v>
       </c>
@@ -1107,7 +1524,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1535,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1142,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1158,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1170,4 +1587,813 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="33"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="33"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="33"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="33"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="33"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="33"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="22">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="31"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="31"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="31"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="31"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="31"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="31"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="34"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="34"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="34"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="34"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="34"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="34"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="28"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="28"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="28"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="28"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="28"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="28"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="25"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="25"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="25"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="25"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="25"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="25"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A49" s="26"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A18:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Game Design/SkillAges.xlsx
+++ b/Game Design/SkillAges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <si>
     <t>Plant</t>
   </si>
@@ -229,12 +229,6 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>Wood, Stone, bone</t>
-  </si>
-  <si>
-    <t>adv. stone, adv. bone, adv. wood</t>
-  </si>
-  <si>
     <t>adv. Gatherer</t>
   </si>
   <si>
@@ -296,6 +290,21 @@
   </si>
   <si>
     <t>plant grain</t>
+  </si>
+  <si>
+    <t>adv. stone, adv. bone, adv. Wood, leather</t>
+  </si>
+  <si>
+    <t>Wood, Stone, bone, fur</t>
+  </si>
+  <si>
+    <t>wood totem amulet</t>
+  </si>
+  <si>
+    <t>bone totem amulet</t>
+  </si>
+  <si>
+    <t>stone totem amulet</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1646,10 +1655,10 @@
         <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1666,10 +1675,10 @@
         <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1680,7 +1689,7 @@
       <c r="A4" s="33"/>
       <c r="B4" s="18"/>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1697,13 +1706,13 @@
         <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1717,19 +1726,19 @@
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1740,7 +1749,9 @@
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1768,7 +1779,7 @@
       <c r="A9" s="33"/>
       <c r="B9" s="18"/>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1792,10 +1803,10 @@
         <v>67</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1812,10 +1823,10 @@
         <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1826,10 +1837,10 @@
       <c r="A12" s="31"/>
       <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1861,7 +1872,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1876,7 +1887,9 @@
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1891,7 +1904,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1904,20 +1917,20 @@
       <c r="A17" s="32"/>
       <c r="B17" s="23"/>
       <c r="C17" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
@@ -1956,7 +1969,7 @@
       <c r="A20" s="34"/>
       <c r="B20" s="18"/>
       <c r="C20" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2000,7 +2013,9 @@
       <c r="C23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2026,7 +2041,7 @@
       <c r="A25" s="34"/>
       <c r="B25" s="18"/>
       <c r="C25" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2070,7 +2085,7 @@
       <c r="A28" s="28"/>
       <c r="B28" s="18"/>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2140,7 +2155,7 @@
       <c r="A33" s="29"/>
       <c r="B33" s="23"/>
       <c r="C33" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2184,7 +2199,7 @@
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2254,7 +2269,7 @@
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2298,7 +2313,7 @@
       <c r="A44" s="25"/>
       <c r="B44" s="20"/>
       <c r="C44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2368,7 +2383,7 @@
       <c r="A49" s="26"/>
       <c r="B49" s="21"/>
       <c r="C49" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>

--- a/Game Design/SkillAges.xlsx
+++ b/Game Design/SkillAges.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>Plant</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>plaster coated houses, circular ditches, timber longhouses</t>
+  </si>
+  <si>
+    <t>Bronze axe, bronze spear, bronze knife, bronze sword</t>
+  </si>
+  <si>
+    <t>Iron axe, iron spear, iron knife, iron sword</t>
+  </si>
+  <si>
+    <t>copper axe, copper spear, copper knife, copper dagger</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +991,9 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1050,7 +1061,9 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1124,6 +1137,9 @@
       </c>
       <c r="B37" t="s">
         <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
